--- a/data/pg-bg.xlsx
+++ b/data/pg-bg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Nome</t>
   </si>
@@ -165,72 +165,6 @@
   </si>
   <si>
     <t>Convinto che le reliquie antiche custodiscano una forma di verità universale capace di spiegare i destini delle civiltà.</t>
-  </si>
-  <si>
-    <t>Bella ma da rivedere</t>
-  </si>
-  <si>
-    <t>Nyx</t>
-  </si>
-  <si>
-    <t>Ladra e spia in fuga</t>
-  </si>
-  <si>
-    <t>Scappa, Cerca</t>
-  </si>
-  <si>
-    <t>Ha rubato un artefatto maledetto</t>
-  </si>
-  <si>
-    <t>All'inizio pensava fosse una bacchetta, ma in realtà era il dito di Vecna, e la divinità cercava di manipolare il PG.</t>
-  </si>
-  <si>
-    <t>Syra</t>
-  </si>
-  <si>
-    <t>Cacciatrice di Tesori</t>
-  </si>
-  <si>
-    <t>Ha rubato un oggetto maledetto</t>
-  </si>
-  <si>
-    <t>L'unico modo che ha per liberarsi è fare X</t>
-  </si>
-  <si>
-    <t>Elira</t>
-  </si>
-  <si>
-    <t>Ladra Redenta</t>
-  </si>
-  <si>
-    <t>Cerca</t>
-  </si>
-  <si>
-    <t>Sorella scomparsa</t>
-  </si>
-  <si>
-    <t>Kael</t>
-  </si>
-  <si>
-    <t>Chierico di Pelor</t>
-  </si>
-  <si>
-    <t>Abbandonato nell'Avernus</t>
-  </si>
-  <si>
-    <t>Tradito dai suoi compagni di party</t>
-  </si>
-  <si>
-    <t>Miriel</t>
-  </si>
-  <si>
-    <t>Ladra elfa del Sottosuolo</t>
-  </si>
-  <si>
-    <t>Parente scomparso</t>
-  </si>
-  <si>
-    <t>Ha intravisto in una visione il fratello, imprigionato da qualche parte</t>
   </si>
 </sst>
 </file>
@@ -868,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,9 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1432,40 +1363,40 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:F20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.8888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.11111111111111" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="13.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="40.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
     <col min="6" max="6" width="133.555555555556" customWidth="1"/>
     <col min="7" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -1485,7 +1416,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1505,7 +1436,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -1525,7 +1456,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -1545,7 +1476,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1565,7 +1496,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1585,175 +1516,93 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
